--- a/apps/load_data/2017/11/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/11/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY1117\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY1117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9B1C9-02F1-4452-A9CA-D2A64E089EEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA942FB9-A5C7-4F3F-A101-0BCA2739FDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$267</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10879" uniqueCount="2567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10866" uniqueCount="2565">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6367,9 +6368,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    126101    1261011081    296920    2969201082    159880    1598802001         0     385992006     39600     396002026    201880    2018802027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -7688,9 +7686,6 @@
   </si>
   <si>
     <t>06567208</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8582,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:XFD267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD270" sqref="AD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45542,12 +45537,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -45612,10 +45602,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2115</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2116</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -45627,7 +45617,7 @@
         <v>153</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -45648,13 +45638,13 @@
         <v>98</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2119</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2120</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45689,13 +45679,13 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2122</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2123</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>97</v>
@@ -45730,12 +45720,7 @@
       <c r="AB210" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -45782,7 +45767,7 @@
         <v>98</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="BB210" s="1">
         <v>11</v>
@@ -45800,10 +45785,10 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2126</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>114</v>
@@ -45815,13 +45800,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -45845,13 +45830,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1757</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45886,13 +45871,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2132</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2133</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45927,12 +45912,7 @@
       <c r="AB211" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -45979,7 +45959,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BB211" s="1">
         <v>11</v>
@@ -46000,10 +45980,10 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2135</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2136</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>114</v>
@@ -46015,13 +45995,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -46045,13 +46025,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46086,13 +46066,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2144</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -46124,12 +46104,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46179,7 +46154,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BB212" s="1">
         <v>11</v>
@@ -46197,7 +46172,7 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>859</v>
@@ -46209,7 +46184,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -46227,13 +46202,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46268,13 +46243,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2151</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2152</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -46306,12 +46281,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46361,7 +46331,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BB213" s="1">
         <v>11</v>
@@ -46379,10 +46349,10 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2154</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2155</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>114</v>
@@ -46391,7 +46361,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -46412,10 +46382,10 @@
         <v>641</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2157</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46450,13 +46420,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2161</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -46488,12 +46458,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -46543,7 +46508,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BB214" s="1">
         <v>11</v>
@@ -46561,7 +46526,7 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>859</v>
@@ -46573,7 +46538,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -46591,13 +46556,13 @@
         <v>98</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2165</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2165</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46632,13 +46597,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2168</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2169</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -46676,12 +46641,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -46728,7 +46688,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BB215" s="1">
         <v>11</v>
@@ -46737,7 +46697,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>109</v>
@@ -46749,10 +46709,10 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="BI215" s="1" t="s">
         <v>2172</v>
-      </c>
-      <c r="BI215" s="1" t="s">
-        <v>2173</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>114</v>
@@ -46764,13 +46724,13 @@
         <v>115</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -46788,13 +46748,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2177</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -46829,13 +46789,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2180</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2181</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46867,12 +46827,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -46922,7 +46877,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BB216" s="1">
         <v>11</v>
@@ -46940,7 +46895,7 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>859</v>
@@ -46952,7 +46907,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -46970,13 +46925,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47011,13 +46966,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2189</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2190</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -47049,12 +47004,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -47104,7 +47054,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="BB217" s="1">
         <v>11</v>
@@ -47122,10 +47072,10 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2193</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>114</v>
@@ -47137,7 +47087,7 @@
         <v>153</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -47155,13 +47105,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2196</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47196,16 +47146,16 @@
         <v>631</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2199</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -47237,12 +47187,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47289,7 +47234,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BB218" s="1">
         <v>11</v>
@@ -47298,7 +47243,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>109</v>
@@ -47310,10 +47255,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2203</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2204</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -47325,13 +47270,13 @@
         <v>205</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -47349,13 +47294,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47390,13 +47335,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2210</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2211</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -47431,12 +47376,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -47486,7 +47426,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BB219" s="1">
         <v>11</v>
@@ -47507,10 +47447,10 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2213</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2214</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>114</v>
@@ -47519,7 +47459,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -47540,13 +47480,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2217</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47581,13 +47521,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2220</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2221</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -47619,12 +47559,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2114</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -47671,7 +47606,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="BB220" s="1">
         <v>11</v>
@@ -47692,10 +47627,10 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2223</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2224</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
@@ -47707,13 +47642,13 @@
         <v>115</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -47731,13 +47666,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47772,13 +47707,13 @@
         <v>314</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2230</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2231</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -47829,7 +47764,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -47874,13 +47809,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -47904,10 +47839,10 @@
         <v>2013</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47942,13 +47877,13 @@
         <v>314</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -48002,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48047,13 +47982,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -48074,13 +48009,13 @@
         <v>98</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2243</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2244</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48115,13 +48050,13 @@
         <v>314</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2246</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2247</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -48175,7 +48110,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48220,13 +48155,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -48247,13 +48182,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48288,13 +48223,13 @@
         <v>314</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -48390,13 +48325,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -48417,10 +48352,10 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>193</v>
@@ -48458,13 +48393,13 @@
         <v>314</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2260</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2261</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -48518,7 +48453,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48563,13 +48498,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -48593,13 +48528,13 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1119</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48634,13 +48569,13 @@
         <v>314</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2266</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2267</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2268</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -48691,7 +48626,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -48736,13 +48671,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -48763,13 +48698,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48804,10 +48739,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>216</v>
@@ -48876,7 +48811,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -48894,7 +48829,7 @@
         <v>220</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -48929,10 +48864,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2278</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>216</v>
@@ -49016,7 +48951,7 @@
         <v>220</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49051,13 +48986,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -49138,7 +49073,7 @@
         <v>98</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BB229" s="1">
         <v>11</v>
@@ -49156,7 +49091,7 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>2054</v>
@@ -49171,7 +49106,7 @@
         <v>153</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -49189,13 +49124,13 @@
         <v>98</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49230,13 +49165,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -49314,7 +49249,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BB230" s="1">
         <v>11</v>
@@ -49332,10 +49267,10 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -49347,13 +49282,13 @@
         <v>205</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -49371,13 +49306,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2296</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49412,13 +49347,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2298</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2299</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2300</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -49496,7 +49431,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BB231" s="1">
         <v>11</v>
@@ -49514,10 +49449,10 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2302</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2303</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>114</v>
@@ -49529,13 +49464,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -49553,13 +49488,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49594,13 +49529,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -49681,7 +49616,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BB232" s="1">
         <v>11</v>
@@ -49699,7 +49634,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1646</v>
@@ -49711,7 +49646,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -49729,13 +49664,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>800</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49770,13 +49705,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49812,7 +49747,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1694</v>
@@ -49857,7 +49792,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BB233" s="1">
         <v>11</v>
@@ -49875,7 +49810,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1646</v>
@@ -49887,7 +49822,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -49908,10 +49843,10 @@
         <v>1417</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2324</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -49946,13 +49881,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2328</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -50033,7 +49968,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BB234" s="1">
         <v>11</v>
@@ -50051,7 +49986,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1847</v>
@@ -50063,7 +49998,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -50087,7 +50022,7 @@
         <v>870</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50122,13 +50057,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -50209,7 +50144,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB235" s="1">
         <v>11</v>
@@ -50227,10 +50162,10 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI235" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
@@ -50239,7 +50174,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -50257,13 +50192,13 @@
         <v>98</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50298,13 +50233,13 @@
         <v>314</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -50346,7 +50281,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50385,13 +50320,13 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -50409,13 +50344,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>296</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50450,13 +50385,13 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -50498,7 +50433,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -50552,7 +50487,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>109</v>
@@ -50564,10 +50499,10 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
@@ -50579,13 +50514,13 @@
         <v>205</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -50606,7 +50541,7 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>286</v>
@@ -50647,13 +50582,13 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2360</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2361</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>97</v>
@@ -50749,10 +50684,10 @@
         <v>111</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2362</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2363</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -50764,13 +50699,13 @@
         <v>115</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -50794,7 +50729,7 @@
         <v>626</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50829,13 +50764,13 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>97</v>
@@ -50931,7 +50866,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>114</v>
@@ -50940,7 +50875,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -50958,13 +50893,13 @@
         <v>98</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -50999,13 +50934,13 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>97</v>
@@ -51101,7 +51036,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>1013</v>
@@ -51113,7 +51048,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>118</v>
@@ -51131,13 +51066,13 @@
         <v>98</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51172,13 +51107,13 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>97</v>
@@ -51274,10 +51209,10 @@
         <v>111</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2386</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2387</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>114</v>
@@ -51289,13 +51224,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>118</v>
@@ -51316,10 +51251,10 @@
         <v>503</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2390</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51354,13 +51289,13 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2392</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2393</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2394</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>97</v>
@@ -51456,10 +51391,10 @@
         <v>111</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>114</v>
@@ -51471,13 +51406,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>118</v>
@@ -51498,10 +51433,10 @@
         <v>870</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2399</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51536,13 +51471,13 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>97</v>
@@ -51635,7 +51570,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>114</v>
@@ -51647,13 +51582,13 @@
         <v>115</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>118</v>
@@ -51671,13 +51606,13 @@
         <v>98</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51712,13 +51647,13 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>97</v>
@@ -51814,10 +51749,10 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>114</v>
@@ -51829,13 +51764,13 @@
         <v>115</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -51853,13 +51788,13 @@
         <v>98</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -51894,13 +51829,13 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>97</v>
@@ -51996,7 +51931,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -52005,7 +51940,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -52026,10 +51961,10 @@
         <v>1133</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52067,10 +52002,10 @@
         <v>248</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>250</v>
@@ -52103,7 +52038,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52154,10 +52089,10 @@
         <v>251</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>114</v>
@@ -52231,16 +52166,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52276,7 +52211,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52327,16 +52262,16 @@
         <v>98</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>218</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>114</v>
@@ -52345,7 +52280,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -52369,7 +52304,7 @@
         <v>122</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52404,16 +52339,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52443,7 +52378,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -52494,7 +52429,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>114</v>
@@ -52506,13 +52441,13 @@
         <v>205</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -52533,13 +52468,13 @@
         <v>98</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52574,16 +52509,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -52610,7 +52545,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -52661,7 +52596,7 @@
         <v>98</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>114</v>
@@ -52670,7 +52605,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -52691,13 +52626,13 @@
         <v>98</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52732,16 +52667,16 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="M250" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="Q250" s="3">
         <v>25379</v>
@@ -52771,7 +52706,7 @@
         <v>39800</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>224</v>
@@ -52822,7 +52757,7 @@
         <v>99</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>114</v>
@@ -52834,13 +52769,13 @@
         <v>216</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BS250" s="3">
         <v>35915</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -52870,7 +52805,7 @@
         <v>433</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -52905,13 +52840,13 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>97</v>
@@ -52989,7 +52924,7 @@
         <v>98</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BB251" s="1">
         <v>11</v>
@@ -53007,7 +52942,7 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>114</v>
@@ -53016,7 +52951,7 @@
         <v>103</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -53034,13 +52969,13 @@
         <v>98</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -53075,13 +53010,13 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>97</v>
@@ -53159,7 +53094,7 @@
         <v>98</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BB252" s="1">
         <v>11</v>
@@ -53177,7 +53112,7 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BI252" s="1" t="s">
         <v>1646</v>
@@ -53189,7 +53124,7 @@
         <v>103</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -53207,13 +53142,13 @@
         <v>98</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="CD252" s="1" t="s">
         <v>1006</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -53248,13 +53183,13 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>97</v>
@@ -53332,7 +53267,7 @@
         <v>98</v>
       </c>
       <c r="AZ253" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BB253" s="1">
         <v>11</v>
@@ -53350,7 +53285,7 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>114</v>
@@ -53359,7 +53294,7 @@
         <v>103</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -53380,10 +53315,10 @@
         <v>1006</v>
       </c>
       <c r="CD253" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="CE253" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53418,16 +53353,16 @@
         <v>631</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>97</v>
@@ -53502,7 +53437,7 @@
         <v>98</v>
       </c>
       <c r="AZ254" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB254" s="1">
         <v>11</v>
@@ -53523,7 +53458,7 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BI254" s="1" t="s">
         <v>1646</v>
@@ -53538,13 +53473,13 @@
         <v>205</v>
       </c>
       <c r="BR254" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BS254" s="3">
         <v>37513</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -53562,13 +53497,13 @@
         <v>98</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53597,19 +53532,19 @@
         <v>91</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K255" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L255" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>97</v>
@@ -53699,7 +53634,7 @@
         <v>111</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BI255" s="1" t="s">
         <v>1771</v>
@@ -53714,13 +53649,13 @@
         <v>99</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BS255" s="3">
         <v>41024</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>118</v>
@@ -53729,7 +53664,7 @@
         <v>0</v>
       </c>
       <c r="BZ255" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="CA255" s="1" t="s">
         <v>120</v>
@@ -53738,13 +53673,13 @@
         <v>98</v>
       </c>
       <c r="CC255" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="CD255" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CD255" s="1" t="s">
+      <c r="CE255" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="256" spans="1:83" x14ac:dyDescent="0.25">
@@ -53779,13 +53714,13 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>97</v>
@@ -53818,7 +53753,7 @@
         <v>104</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>1694</v>
@@ -53842,28 +53777,28 @@
         <v>97</v>
       </c>
       <c r="AQ256" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AR256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV256" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY256" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ256" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="AR256" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS256" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT256" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU256" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV256" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY256" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ256" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="BB256" s="1">
         <v>11</v>
@@ -53881,7 +53816,7 @@
         <v>111</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
@@ -53893,13 +53828,13 @@
         <v>115</v>
       </c>
       <c r="BR256" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BS256" s="3">
         <v>34808</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>118</v>
@@ -53917,13 +53852,13 @@
         <v>98</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="CD256" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CD256" s="1" t="s">
+      <c r="CE256" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>2519</v>
       </c>
     </row>
     <row r="257" spans="1:84" x14ac:dyDescent="0.25">
@@ -53940,7 +53875,7 @@
         <v>87</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>89</v>
@@ -53958,13 +53893,13 @@
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="N257" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>97</v>
@@ -54039,7 +53974,7 @@
         <v>98</v>
       </c>
       <c r="AZ257" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BB257" s="1">
         <v>11</v>
@@ -54057,10 +53992,10 @@
         <v>111</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BI257" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
@@ -54072,13 +54007,13 @@
         <v>99</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BS257" s="3">
         <v>37336</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -54087,7 +54022,7 @@
         <v>0</v>
       </c>
       <c r="BZ257" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="CA257" s="1" t="s">
         <v>120</v>
@@ -54096,13 +54031,13 @@
         <v>98</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2531</v>
       </c>
     </row>
     <row r="258" spans="1:84" x14ac:dyDescent="0.25">
@@ -54137,13 +54072,13 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="L258" s="1" t="s">
+      <c r="N258" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -54221,7 +54156,7 @@
         <v>98</v>
       </c>
       <c r="AZ258" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BB258" s="1">
         <v>11</v>
@@ -54239,10 +54174,10 @@
         <v>111</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BI258" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>114</v>
@@ -54251,7 +54186,7 @@
         <v>103</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>118</v>
@@ -54269,13 +54204,13 @@
         <v>98</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="CD258" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="CD258" s="1" t="s">
+      <c r="CE258" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="259" spans="1:84" x14ac:dyDescent="0.25">
@@ -54292,7 +54227,7 @@
         <v>87</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>89</v>
@@ -54304,19 +54239,19 @@
         <v>91</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="N259" s="1" t="s">
         <v>2544</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2545</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>97</v>
@@ -54409,7 +54344,7 @@
         <v>111</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
@@ -54418,7 +54353,7 @@
         <v>103</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -54427,7 +54362,7 @@
         <v>0</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>120</v>
@@ -54436,13 +54371,13 @@
         <v>98</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="CD259" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="CD259" s="1" t="s">
+      <c r="CE259" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>2551</v>
       </c>
     </row>
     <row r="260" spans="1:84" x14ac:dyDescent="0.25">
@@ -54477,16 +54412,16 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="Q260" s="3">
         <v>23750</v>
@@ -54515,12 +54450,7 @@
       <c r="AA260" s="1">
         <v>0</v>
       </c>
-      <c r="AC260" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD260" s="1" t="s">
-        <v>2555</v>
-      </c>
+      <c r="AC260" s="3"/>
       <c r="AF260" s="1" t="s">
         <v>104</v>
       </c>
@@ -54570,13 +54500,13 @@
         <v>98</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="BD260" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>114</v>
@@ -54585,7 +54515,7 @@
         <v>103</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -54609,10 +54539,10 @@
         <v>1046</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="261" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -54766,7 +54696,7 @@
         <v>111</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -54970,7 +54900,7 @@
         <v>111</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -55059,14 +54989,14 @@
         <v>631</v>
       </c>
       <c r="K263" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L263" s="4" t="s">
         <v>2465</v>
-      </c>
-      <c r="L263" s="4" t="s">
-        <v>2466</v>
       </c>
       <c r="M263" s="4"/>
       <c r="N263" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O263" s="4" t="s">
         <v>97</v>
@@ -55155,7 +55085,7 @@
         <v>98</v>
       </c>
       <c r="AZ263" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BA263" s="4" t="s">
         <v>267</v>
@@ -55173,7 +55103,7 @@
         <v>111</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -55188,7 +55118,7 @@
       <c r="BQ263" s="4"/>
       <c r="BR263" s="4"/>
       <c r="BT263" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU263" s="4" t="s">
         <v>118</v>
@@ -55209,13 +55139,13 @@
         <v>98</v>
       </c>
       <c r="CC263" s="4" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CD263" s="4" t="s">
         <v>2471</v>
       </c>
-      <c r="CD263" s="4" t="s">
+      <c r="CE263" s="4" t="s">
         <v>2472</v>
-      </c>
-      <c r="CE263" s="4" t="s">
-        <v>2473</v>
       </c>
       <c r="CF263" s="4"/>
     </row>
@@ -55251,14 +55181,14 @@
         <v>631</v>
       </c>
       <c r="K264" s="4" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L264" s="4" t="s">
         <v>2474</v>
-      </c>
-      <c r="L264" s="4" t="s">
-        <v>2475</v>
       </c>
       <c r="M264" s="4"/>
       <c r="N264" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="O264" s="4" t="s">
         <v>97</v>
@@ -55347,7 +55277,7 @@
         <v>98</v>
       </c>
       <c r="AZ264" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BA264" s="4" t="s">
         <v>267</v>
@@ -55365,7 +55295,7 @@
         <v>111</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -55380,7 +55310,7 @@
       <c r="BQ264" s="4"/>
       <c r="BR264" s="4"/>
       <c r="BT264" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BU264" s="4" t="s">
         <v>118</v>
@@ -55401,13 +55331,13 @@
         <v>98</v>
       </c>
       <c r="CC264" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="CD264" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="CE264" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="CF264" s="4"/>
     </row>
@@ -55443,14 +55373,14 @@
         <v>631</v>
       </c>
       <c r="K265" s="4" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L265" s="4" t="s">
         <v>2521</v>
-      </c>
-      <c r="L265" s="4" t="s">
-        <v>2522</v>
       </c>
       <c r="M265" s="4"/>
       <c r="N265" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="O265" s="4" t="s">
         <v>97</v>
@@ -55537,7 +55467,7 @@
         <v>98</v>
       </c>
       <c r="AZ265" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BA265" s="4" t="s">
         <v>267</v>
@@ -55555,7 +55485,7 @@
         <v>111</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -55571,13 +55501,13 @@
       <c r="BP265" s="4"/>
       <c r="BQ265" s="4"/>
       <c r="BR265" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BS265" s="5">
         <v>37336</v>
       </c>
       <c r="BT265" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BU265" s="4" t="s">
         <v>118</v>
@@ -55598,13 +55528,13 @@
         <v>98</v>
       </c>
       <c r="CC265" s="4" t="s">
+        <v>2528</v>
+      </c>
+      <c r="CD265" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="CD265" s="4" t="s">
+      <c r="CE265" s="4" t="s">
         <v>2530</v>
-      </c>
-      <c r="CE265" s="4" t="s">
-        <v>2531</v>
       </c>
       <c r="CF265" s="4"/>
     </row>
@@ -55640,14 +55570,14 @@
         <v>631</v>
       </c>
       <c r="K266" s="4" t="s">
+        <v>2531</v>
+      </c>
+      <c r="L266" s="4" t="s">
         <v>2532</v>
-      </c>
-      <c r="L266" s="4" t="s">
-        <v>2533</v>
       </c>
       <c r="M266" s="4"/>
       <c r="N266" s="4" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="O266" s="4" t="s">
         <v>97</v>
@@ -55736,7 +55666,7 @@
         <v>98</v>
       </c>
       <c r="AZ266" s="4" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BA266" s="4" t="s">
         <v>267</v>
@@ -55754,7 +55684,7 @@
         <v>111</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -55769,7 +55699,7 @@
       <c r="BQ266" s="4"/>
       <c r="BR266" s="4"/>
       <c r="BT266" s="4" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BU266" s="4" t="s">
         <v>118</v>
@@ -55790,13 +55720,13 @@
         <v>98</v>
       </c>
       <c r="CC266" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="CD266" s="4" t="s">
         <v>2538</v>
       </c>
-      <c r="CD266" s="4" t="s">
+      <c r="CE266" s="4" t="s">
         <v>2539</v>
-      </c>
-      <c r="CE266" s="4" t="s">
-        <v>2540</v>
       </c>
       <c r="CF266" s="4"/>
     </row>
@@ -55832,14 +55762,14 @@
         <v>631</v>
       </c>
       <c r="K267" s="4" t="s">
+        <v>2542</v>
+      </c>
+      <c r="L267" s="4" t="s">
         <v>2543</v>
-      </c>
-      <c r="L267" s="4" t="s">
-        <v>2544</v>
       </c>
       <c r="M267" s="4"/>
       <c r="N267" s="4" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="O267" s="4" t="s">
         <v>97</v>
@@ -55944,7 +55874,7 @@
         <v>111</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -55959,7 +55889,7 @@
       <c r="BQ267" s="4"/>
       <c r="BR267" s="4"/>
       <c r="BT267" s="4" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BU267" s="4" t="s">
         <v>118</v>
@@ -55980,17 +55910,18 @@
         <v>98</v>
       </c>
       <c r="CC267" s="4" t="s">
+        <v>2548</v>
+      </c>
+      <c r="CD267" s="4" t="s">
         <v>2549</v>
       </c>
-      <c r="CD267" s="4" t="s">
+      <c r="CE267" s="4" t="s">
         <v>2550</v>
-      </c>
-      <c r="CE267" s="4" t="s">
-        <v>2551</v>
       </c>
       <c r="CF267" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF267" xr:uid="{BF0A5B67-DBD1-419E-80E7-45B1CC3363F1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>